--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_360__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_360__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,64 +6118,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>4.116952896118164</c:v>
+                  <c:v>4.11696195602417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.50131225585938</c:v>
+                  <c:v>90.50129699707031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.89501571655273</c:v>
+                  <c:v>27.89500045776367</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.378074645996094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.59321594238281</c:v>
+                  <c:v>90.59320831298828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.19607543945312</c:v>
+                  <c:v>70.19608306884766</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>93.42000579833984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6028144955635071</c:v>
+                  <c:v>0.6028262376785278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.017529487609863</c:v>
+                  <c:v>1.017526507377625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.56340026855469</c:v>
+                  <c:v>69.56340789794922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.90483856201172</c:v>
+                  <c:v>39.90488433837891</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.29046630859375</c:v>
+                  <c:v>91.29045867919922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.763045787811279</c:v>
+                  <c:v>6.763037204742432</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>90.016845703125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9625600576400757</c:v>
+                  <c:v>0.9625688791275024</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>46.85540008544922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6306916475296021</c:v>
+                  <c:v>0.6306887269020081</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>88.40499877929688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.68206405639648</c:v>
+                  <c:v>53.68206787109375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.823247909545898</c:v>
+                  <c:v>4.823256969451904</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>90.49156188964844</c:v>
@@ -6190,16 +6190,16 @@
                   <c:v>91.02975463867188</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.520103454589844</c:v>
+                  <c:v>5.520109176635742</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88.95295715332031</c:v>
+                  <c:v>88.95294952392578</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>85.67403411865234</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59.98373031616211</c:v>
+                  <c:v>59.98372268676758</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.770897626876831</c:v>
@@ -6211,118 +6211,118 @@
                   <c:v>89.72261810302734</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.190377831459045</c:v>
+                  <c:v>1.190371990203857</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1727837026119232</c:v>
+                  <c:v>0.1727748811244965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9963959455490112</c:v>
+                  <c:v>0.9963930249214172</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3525432944297791</c:v>
+                  <c:v>0.3525374233722687</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>94.73162078857422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66.21349334716797</c:v>
+                  <c:v>66.21351623535156</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5612295269966125</c:v>
+                  <c:v>0.5612324476242065</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9700709581375122</c:v>
+                  <c:v>0.9700856804847717</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>95.77081298828125</c:v>
+                  <c:v>95.77082824707031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49.16280364990234</c:v>
+                  <c:v>49.16280746459961</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>79.21315002441406</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.894444346427917</c:v>
+                  <c:v>1.894447326660156</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.46255874633789</c:v>
+                  <c:v>37.46255493164062</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.648694515228271</c:v>
+                  <c:v>-3.648688554763794</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6685284972190857</c:v>
+                  <c:v>0.6685225963592529</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.47435262799263</c:v>
+                  <c:v>0.4743496775627136</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>95.63837432861328</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3312451839447021</c:v>
+                  <c:v>0.3312481343746185</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.01073455810547</c:v>
+                  <c:v>94.0107421875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>49.92493438720703</c:v>
+                  <c:v>49.9249153137207</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>151.2018127441406</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>102.4688415527344</c:v>
+                  <c:v>102.4688339233398</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7393017411231995</c:v>
+                  <c:v>0.7392988204956055</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.96391010284424</c:v>
+                  <c:v>10.96393013000488</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67.90866088867188</c:v>
+                  <c:v>67.90864562988281</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>85.65804290771484</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.107122659683228</c:v>
+                  <c:v>2.107125520706177</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51.89559555053711</c:v>
+                  <c:v>51.89559173583984</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.81209564208984</c:v>
+                  <c:v>89.81208038330078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.866908192634583</c:v>
+                  <c:v>1.866905212402344</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.28850793838501</c:v>
+                  <c:v>1.288510799407959</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>92.6641845703125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.558701515197754</c:v>
+                  <c:v>2.558689832687378</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>90.59490203857422</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.02823580056428909</c:v>
+                  <c:v>-0.02823286131024361</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.087920665740967</c:v>
+                  <c:v>3.087923526763916</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.55470657348633</c:v>
+                  <c:v>44.55467224121094</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>59.72162628173828</c:v>
+                  <c:v>59.72163772583008</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>87.05633544921875</c:v>
@@ -6331,19 +6331,19 @@
                   <c:v>95.7476806640625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>92.57508850097656</c:v>
+                  <c:v>92.57510375976562</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.74462890625</c:v>
+                  <c:v>89.74464416503906</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.240426301956177</c:v>
+                  <c:v>3.240414619445801</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>89.51859283447266</c:v>
+                  <c:v>89.51858520507812</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45.48626327514648</c:v>
+                  <c:v>45.48630142211914</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>98.08712768554688</c:v>
@@ -6352,40 +6352,40 @@
                   <c:v>90.7628173828125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.27032470703125</c:v>
+                  <c:v>90.27030944824219</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>95.84872436523438</c:v>
+                  <c:v>95.84870147705078</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>4.732296466827393</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.454045295715332</c:v>
+                  <c:v>1.45405113697052</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.9093632698059082</c:v>
+                  <c:v>0.909369170665741</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>86.0140380859375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>88.16002655029297</c:v>
+                  <c:v>88.16001892089844</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>90.20813751220703</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.604493141174316</c:v>
+                  <c:v>7.604499340057373</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.3079657256603241</c:v>
+                  <c:v>0.3079627752304077</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.110288619995117</c:v>
+                  <c:v>4.110294818878174</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.55309295654297</c:v>
+                  <c:v>89.55310821533203</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>90.10102844238281</c:v>
@@ -6394,34 +6394,34 @@
                   <c:v>3.309285879135132</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40.9145393371582</c:v>
+                  <c:v>40.91454315185547</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>90.67871856689453</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.66880226135254</c:v>
+                  <c:v>10.66881656646729</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.75676965713501</c:v>
+                  <c:v>4.756772518157959</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.16555786132812</c:v>
+                  <c:v>89.16557312011719</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>94.24467468261719</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.815978050231934</c:v>
+                  <c:v>4.815980911254883</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.26441192626953</c:v>
+                  <c:v>89.26442718505859</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.254457473754883</c:v>
+                  <c:v>2.254445552825928</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.954211711883545</c:v>
+                  <c:v>6.954194068908691</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>85.19579315185547</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.116952896118164</v>
+        <v>4.11696195602417</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>90.50131225585938</v>
+        <v>90.50129699707031</v>
       </c>
       <c r="G3">
         <v>152</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.89501571655273</v>
+        <v>27.89500045776367</v>
       </c>
       <c r="G4">
         <v>152</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>90.59321594238281</v>
+        <v>90.59320831298828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>70.19607543945312</v>
+        <v>70.19608306884766</v>
       </c>
       <c r="G7">
         <v>152</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6028144955635071</v>
+        <v>0.6028262376785278</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>1.017529487609863</v>
+        <v>1.017526507377625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>69.56340026855469</v>
+        <v>69.56340789794922</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>39.90483856201172</v>
+        <v>39.90488433837891</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>91.29046630859375</v>
+        <v>91.29045867919922</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>6.763045787811279</v>
+        <v>6.763037204742432</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>0.9625600576400757</v>
+        <v>0.9625688791275024</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6306916475296021</v>
+        <v>0.6306887269020081</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>53.68206405639648</v>
+        <v>53.68206787109375</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.823247909545898</v>
+        <v>4.823256969451904</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.520103454589844</v>
+        <v>5.520109176635742</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>88.95295715332031</v>
+        <v>88.95294952392578</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>59.98373031616211</v>
+        <v>59.98372268676758</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.190377831459045</v>
+        <v>1.190371990203857</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.1727837026119232</v>
+        <v>0.1727748811244965</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.9963959455490112</v>
+        <v>0.9963930249214172</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.3525432944297791</v>
+        <v>0.3525374233722687</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>66.21349334716797</v>
+        <v>66.21351623535156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.5612295269966125</v>
+        <v>0.5612324476242065</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9700709581375122</v>
+        <v>0.9700856804847717</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>95.77081298828125</v>
+        <v>95.77082824707031</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>49.16280364990234</v>
+        <v>49.16280746459961</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.894444346427917</v>
+        <v>1.894447326660156</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>37.46255874633789</v>
+        <v>37.46255493164062</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-3.648694515228271</v>
+        <v>-3.648688554763794</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.6685284972190857</v>
+        <v>0.6685225963592529</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.47435262799263</v>
+        <v>0.4743496775627136</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3312451839447021</v>
+        <v>0.3312481343746185</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>94.01073455810547</v>
+        <v>94.0107421875</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>49.92493438720703</v>
+        <v>49.9249153137207</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>102.4688415527344</v>
+        <v>102.4688339233398</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.7393017411231995</v>
+        <v>0.7392988204956055</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>10.96391010284424</v>
+        <v>10.96393013000488</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>67.90866088867188</v>
+        <v>67.90864562988281</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.107122659683228</v>
+        <v>2.107125520706177</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>51.89559555053711</v>
+        <v>51.89559173583984</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>89.81209564208984</v>
+        <v>89.81208038330078</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.866908192634583</v>
+        <v>1.866905212402344</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.28850793838501</v>
+        <v>1.288510799407959</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>2.558701515197754</v>
+        <v>2.558689832687378</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.02823580056428909</v>
+        <v>-0.02823286131024361</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>3.087920665740967</v>
+        <v>3.087923526763916</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>44.55470657348633</v>
+        <v>44.55467224121094</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>59.72162628173828</v>
+        <v>59.72163772583008</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>92.57508850097656</v>
+        <v>92.57510375976562</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>89.74462890625</v>
+        <v>89.74464416503906</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>3.240426301956177</v>
+        <v>3.240414619445801</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>89.51859283447266</v>
+        <v>89.51858520507812</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>45.48626327514648</v>
+        <v>45.48630142211914</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>90.27032470703125</v>
+        <v>90.27030944824219</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>95.84872436523438</v>
+        <v>95.84870147705078</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.454045295715332</v>
+        <v>1.45405113697052</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.9093632698059082</v>
+        <v>0.909369170665741</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>88.16002655029297</v>
+        <v>88.16001892089844</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7.604493141174316</v>
+        <v>7.604499340057373</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.3079657256603241</v>
+        <v>0.3079627752304077</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4.110288619995117</v>
+        <v>4.110294818878174</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>89.55309295654297</v>
+        <v>89.55310821533203</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>40.9145393371582</v>
+        <v>40.91454315185547</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>10.66880226135254</v>
+        <v>10.66881656646729</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>4.75676965713501</v>
+        <v>4.756772518157959</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>89.16555786132812</v>
+        <v>89.16557312011719</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>4.815978050231934</v>
+        <v>4.815980911254883</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>89.26441192626953</v>
+        <v>89.26442718505859</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>2.254457473754883</v>
+        <v>2.254445552825928</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>6.954211711883545</v>
+        <v>6.954194068908691</v>
       </c>
     </row>
     <row r="104" spans="1:6">
